--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319A1D9-9193-48A7-BA71-E332B1A32C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434856E7-1769-449C-AEAD-9EFCEAAD2564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6795" yWindow="3600" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritSkill_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpiritSkill_Table!$B$5:$V$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpiritSkill_Table!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpiritSkill_Table!$B$5:$V$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpiritSkill_Table!$A$1:$AG$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>번호</t>
   </si>
@@ -411,6 +411,62 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t>연속 참격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이프리트 기둥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이프리트 폭파</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티러 투사체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사티러 장풍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사 부체꼴 참격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>부체꼴 넉백</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴 투사체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤먼 범위 힐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 증가 마녀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발키리 2호 힐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 공격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신 공격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +476,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +578,19 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -555,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -688,11 +757,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +911,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,17 +1137,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB996"/>
+  <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B101"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
@@ -1068,7 +1162,7 @@
     <col min="12" max="12" width="8" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9.625" customWidth="1"/>
-    <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
@@ -1378,13 +1472,13 @@
         <v>2</v>
       </c>
       <c r="G6" s="15">
-        <v>40</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1</v>
       </c>
       <c r="I6" s="34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="15">
         <v>1</v>
@@ -1396,16 +1490,16 @@
         <v>5</v>
       </c>
       <c r="M6" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N6" s="15">
         <v>2</v>
       </c>
       <c r="O6" s="15">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="P6" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -1448,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="G7" s="15">
-        <v>30</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="46">
+        <v>15</v>
       </c>
       <c r="I7" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="15">
         <v>1</v>
@@ -1466,16 +1560,16 @@
         <v>5</v>
       </c>
       <c r="M7" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="15">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="P7" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -1520,11 +1614,11 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="34">
-        <v>0</v>
+      <c r="H8" s="46">
+        <v>1</v>
       </c>
       <c r="I8" s="34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
@@ -1536,16 +1630,16 @@
         <v>3</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="15">
         <v>2</v>
       </c>
       <c r="O8" s="15">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="P8" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1590,11 +1684,11 @@
       <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="46">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
         <v>5</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
       </c>
       <c r="J9" s="15">
         <v>1</v>
@@ -1606,16 +1700,16 @@
         <v>3</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="15">
         <v>2</v>
       </c>
       <c r="O9" s="15">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="P9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -1660,11 +1754,11 @@
       <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="15">
-        <v>1</v>
+      <c r="H10" s="46">
+        <v>10</v>
       </c>
       <c r="I10" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="15">
         <v>1</v>
@@ -1676,7 +1770,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="15">
         <v>2</v>
@@ -1685,7 +1779,7 @@
         <v>360</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -1730,11 +1824,11 @@
       <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="15">
-        <v>1</v>
+      <c r="H11" s="46">
+        <v>2</v>
       </c>
       <c r="I11" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="15">
         <v>1</v>
@@ -1746,16 +1840,16 @@
         <v>10</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="15">
         <v>2</v>
       </c>
       <c r="O11" s="15">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="P11" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -1785,25 +1879,63 @@
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="C12" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="15">
+        <v>170007</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>10</v>
+      </c>
+      <c r="H12" s="46">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15">
+        <v>4</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2</v>
+      </c>
+      <c r="O12" s="15">
+        <v>360</v>
+      </c>
+      <c r="P12" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="4"/>
       <c r="X12" s="2"/>
@@ -1817,25 +1949,63 @@
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="C13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="15">
+        <v>170008</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>10</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <v>10</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15">
+        <v>1</v>
+      </c>
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="4"/>
       <c r="X13" s="2"/>
@@ -1849,25 +2019,63 @@
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="C14" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="15">
+        <v>170009</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10</v>
+      </c>
+      <c r="H14" s="46">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>4</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <v>10</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2</v>
+      </c>
+      <c r="O14" s="15">
+        <v>360</v>
+      </c>
+      <c r="P14" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
       <c r="V14" s="2"/>
       <c r="W14" s="4"/>
       <c r="X14" s="2"/>
@@ -1881,25 +2089,63 @@
       <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="C15" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="15">
+        <v>170010</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="46">
+        <v>10</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>10</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="15">
+        <v>1</v>
+      </c>
+      <c r="O15" s="15">
+        <v>5</v>
+      </c>
+      <c r="P15" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="4"/>
       <c r="X15" s="2"/>
@@ -1913,25 +2159,63 @@
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="C16" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="15">
+        <v>170011</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
+      <c r="H16" s="46">
+        <v>15</v>
+      </c>
+      <c r="I16" s="15">
+        <v>3</v>
+      </c>
+      <c r="J16" s="15">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>10</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>1</v>
+      </c>
+      <c r="N16" s="15">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>15</v>
+      </c>
+      <c r="P16" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <v>0</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="4"/>
       <c r="X16" s="2"/>
@@ -1945,25 +2229,63 @@
       <c r="B17" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="C17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="15">
+        <v>170012</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2</v>
+      </c>
+      <c r="G17" s="15">
+        <v>10</v>
+      </c>
+      <c r="H17" s="46">
+        <v>5</v>
+      </c>
+      <c r="I17" s="15">
+        <v>4</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10</v>
+      </c>
+      <c r="L17" s="16">
+        <v>5</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1</v>
+      </c>
+      <c r="N17" s="15">
+        <v>2</v>
+      </c>
+      <c r="O17" s="15">
+        <v>360</v>
+      </c>
+      <c r="P17" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="4"/>
       <c r="X17" s="2"/>
@@ -1977,25 +2299,63 @@
       <c r="B18" s="14">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="C18" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="15">
+        <v>170013</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>10</v>
+      </c>
+      <c r="H18" s="46">
+        <v>5</v>
+      </c>
+      <c r="I18" s="15">
+        <v>4</v>
+      </c>
+      <c r="J18" s="15">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10</v>
+      </c>
+      <c r="L18" s="16">
+        <v>5</v>
+      </c>
+      <c r="M18" s="15">
+        <v>1</v>
+      </c>
+      <c r="N18" s="15">
+        <v>2</v>
+      </c>
+      <c r="O18" s="15">
+        <v>90</v>
+      </c>
+      <c r="P18" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
+        <v>0</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <v>0</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="4"/>
       <c r="X18" s="2"/>
@@ -2009,25 +2369,63 @@
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="C19" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="15">
+        <v>170014</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>10</v>
+      </c>
+      <c r="H19" s="46">
+        <v>15</v>
+      </c>
+      <c r="I19" s="15">
+        <v>3</v>
+      </c>
+      <c r="J19" s="15">
+        <v>1</v>
+      </c>
+      <c r="K19" s="15">
+        <v>10</v>
+      </c>
+      <c r="L19" s="16">
+        <v>5</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1</v>
+      </c>
+      <c r="N19" s="15">
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
+        <v>15</v>
+      </c>
+      <c r="P19" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="4"/>
       <c r="X19" s="2"/>
@@ -2041,25 +2439,63 @@
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="C20" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="15">
+        <v>170015</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>5</v>
+      </c>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <v>10</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5</v>
+      </c>
+      <c r="M20" s="15">
+        <v>1</v>
+      </c>
+      <c r="N20" s="15">
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
+        <v>2</v>
+      </c>
+      <c r="P20" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="4"/>
       <c r="X20" s="2"/>
@@ -2073,25 +2509,63 @@
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="C21" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="15">
+        <v>170016</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <v>2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>5</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15">
+        <v>10</v>
+      </c>
+      <c r="L21" s="16">
+        <v>5</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1</v>
+      </c>
+      <c r="N21" s="15">
+        <v>1</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0</v>
+      </c>
       <c r="V21" s="2"/>
       <c r="W21" s="4"/>
       <c r="X21" s="2"/>
@@ -2101,29 +2575,67 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="C22" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="15">
+        <v>170017</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <v>15</v>
+      </c>
+      <c r="I22" s="15">
+        <v>4</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15">
+        <v>10</v>
+      </c>
+      <c r="L22" s="16">
+        <v>5</v>
+      </c>
+      <c r="M22" s="15">
+        <v>1</v>
+      </c>
+      <c r="N22" s="15">
+        <v>2</v>
+      </c>
+      <c r="O22" s="15">
+        <v>60</v>
+      </c>
+      <c r="P22" s="15">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
       <c r="V22" s="5"/>
       <c r="W22" s="4"/>
       <c r="X22" s="2"/>
@@ -2133,30 +2645,66 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="2"/>
+      <c r="C23" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="15">
+        <v>241001</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15">
+        <v>10</v>
+      </c>
+      <c r="H23" s="46">
+        <v>3</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <v>10</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15">
+        <v>1</v>
+      </c>
+      <c r="O23" s="15">
+        <v>3</v>
+      </c>
+      <c r="P23" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5"/>
       <c r="W23" s="4"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -2165,30 +2713,66 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="2"/>
+      <c r="C24" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="15">
+        <v>241002</v>
+      </c>
+      <c r="F24" s="15">
+        <v>2</v>
+      </c>
+      <c r="G24" s="15">
+        <v>10</v>
+      </c>
+      <c r="H24" s="46">
+        <v>3</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <v>10</v>
+      </c>
+      <c r="L24" s="16">
+        <v>5</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1</v>
+      </c>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
+      <c r="O24" s="15">
+        <v>3</v>
+      </c>
+      <c r="P24" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5"/>
       <c r="W24" s="4"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -2198,28 +2782,28 @@
     </row>
     <row r="25" spans="1:28" ht="16.5" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="14">
+      <c r="B25" s="48">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="2"/>
@@ -2700,7 +3284,7 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
       <c r="W40" s="4"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -2764,7 +3348,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="2"/>
+      <c r="V42" s="5"/>
       <c r="W42" s="4"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
@@ -3852,7 +4436,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
       <c r="W76" s="4"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
@@ -3916,7 +4500,7 @@
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
-      <c r="V78" s="2"/>
+      <c r="V78" s="5"/>
       <c r="W78" s="4"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
@@ -4662,7 +5246,9 @@
     </row>
     <row r="102" spans="1:28" ht="16.5" customHeight="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="14">
+        <v>97</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4692,7 +5278,9 @@
     </row>
     <row r="103" spans="1:28" ht="16.5" customHeight="1">
       <c r="A103" s="3"/>
-      <c r="B103" s="6"/>
+      <c r="B103" s="14">
+        <v>98</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6580,9 +7168,9 @@
       <c r="AA165" s="2"/>
       <c r="AB165" s="2"/>
     </row>
-    <row r="166" spans="1:28" ht="14.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
+    <row r="166" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A166" s="3"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6603,16 +7191,16 @@
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
       <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
+      <c r="W166" s="4"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
       <c r="AB166" s="2"/>
     </row>
-    <row r="167" spans="1:28" ht="14.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+    <row r="167" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A167" s="3"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6633,7 +7221,7 @@
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
       <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
+      <c r="W167" s="4"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
@@ -31510,10 +32098,70 @@
       <c r="AA996" s="2"/>
       <c r="AB996" s="2"/>
     </row>
+    <row r="997" spans="1:28" ht="14.25">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+      <c r="H997" s="2"/>
+      <c r="I997" s="2"/>
+      <c r="J997" s="2"/>
+      <c r="K997" s="2"/>
+      <c r="L997" s="8"/>
+      <c r="M997" s="2"/>
+      <c r="N997" s="2"/>
+      <c r="O997" s="2"/>
+      <c r="P997" s="2"/>
+      <c r="Q997" s="2"/>
+      <c r="R997" s="5"/>
+      <c r="S997" s="5"/>
+      <c r="T997" s="5"/>
+      <c r="U997" s="5"/>
+      <c r="V997" s="2"/>
+      <c r="W997" s="2"/>
+      <c r="X997" s="2"/>
+      <c r="Y997" s="2"/>
+      <c r="Z997" s="2"/>
+      <c r="AA997" s="2"/>
+      <c r="AB997" s="2"/>
+    </row>
+    <row r="998" spans="1:28" ht="14.25">
+      <c r="A998" s="2"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="2"/>
+      <c r="E998" s="2"/>
+      <c r="F998" s="2"/>
+      <c r="G998" s="2"/>
+      <c r="H998" s="2"/>
+      <c r="I998" s="2"/>
+      <c r="J998" s="2"/>
+      <c r="K998" s="2"/>
+      <c r="L998" s="8"/>
+      <c r="M998" s="2"/>
+      <c r="N998" s="2"/>
+      <c r="O998" s="2"/>
+      <c r="P998" s="2"/>
+      <c r="Q998" s="2"/>
+      <c r="R998" s="5"/>
+      <c r="S998" s="5"/>
+      <c r="T998" s="5"/>
+      <c r="U998" s="5"/>
+      <c r="V998" s="2"/>
+      <c r="W998" s="2"/>
+      <c r="X998" s="2"/>
+      <c r="Y998" s="2"/>
+      <c r="Z998" s="2"/>
+      <c r="AA998" s="2"/>
+      <c r="AB998" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B5:V101" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:V101">
-      <sortCondition ref="B5:B101"/>
+  <autoFilter ref="B5:V103" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:V103">
+      <sortCondition ref="B5:B103"/>
     </sortState>
   </autoFilter>
   <mergeCells count="7">
@@ -31530,7 +32178,7 @@
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="11" max="32" man="1"/>
+    <brk id="24" max="32" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434856E7-1769-449C-AEAD-9EFCEAAD2564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9610A37-064D-4892-9EBB-A858C8E92E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6795" yWindow="3600" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18210" yWindow="3450" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -883,6 +883,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,15 +920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,10 +1140,10 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="23"/>
@@ -1229,16 +1229,16 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="36" t="s">
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="1"/>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="24" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="37"/>
+      <c r="V3" s="40"/>
       <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1474,7 +1474,7 @@
       <c r="G6" s="15">
         <v>10</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="36">
         <v>1</v>
       </c>
       <c r="I6" s="34">
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="S6" s="17">
-        <v>970008</v>
+        <v>923004</v>
       </c>
       <c r="T6" s="17">
-        <v>0</v>
+        <v>921004</v>
       </c>
       <c r="U6" s="17">
-        <v>912001</v>
+        <v>921005</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="4"/>
@@ -1544,7 +1544,7 @@
       <c r="G7" s="15">
         <v>10</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="36">
         <v>15</v>
       </c>
       <c r="I7" s="34">
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="17">
-        <v>912005</v>
+        <v>923004</v>
       </c>
       <c r="T7" s="17">
-        <v>0</v>
+        <v>970018</v>
       </c>
       <c r="U7" s="17">
-        <v>912002</v>
+        <v>921003</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="4"/>
@@ -1614,7 +1614,7 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="36">
         <v>1</v>
       </c>
       <c r="I8" s="34">
@@ -1684,7 +1684,7 @@
       <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="36">
         <v>1</v>
       </c>
       <c r="I9" s="15">
@@ -1754,7 +1754,7 @@
       <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="36">
         <v>10</v>
       </c>
       <c r="I10" s="15">
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="S10" s="17">
-        <v>970011</v>
+        <v>923003</v>
       </c>
       <c r="T10" s="17">
-        <v>0</v>
+        <v>923003</v>
       </c>
       <c r="U10" s="17">
-        <v>912009</v>
+        <v>923003</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="4"/>
@@ -1824,7 +1824,7 @@
       <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="36">
         <v>2</v>
       </c>
       <c r="I11" s="15">
@@ -1894,7 +1894,7 @@
       <c r="G12" s="15">
         <v>10</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="36">
         <v>10</v>
       </c>
       <c r="I12" s="15">
@@ -1964,7 +1964,7 @@
       <c r="G13" s="15">
         <v>10</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="36">
         <v>1</v>
       </c>
       <c r="I13" s="15">
@@ -2019,7 +2019,7 @@
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -2034,7 +2034,7 @@
       <c r="G14" s="15">
         <v>10</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="36">
         <v>5</v>
       </c>
       <c r="I14" s="15">
@@ -2089,7 +2089,7 @@
       <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -2104,7 +2104,7 @@
       <c r="G15" s="15">
         <v>10</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="36">
         <v>10</v>
       </c>
       <c r="I15" s="15">
@@ -2159,7 +2159,7 @@
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2174,7 +2174,7 @@
       <c r="G16" s="15">
         <v>10</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="36">
         <v>15</v>
       </c>
       <c r="I16" s="15">
@@ -2229,7 +2229,7 @@
       <c r="B17" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="15" t="s">
@@ -2244,7 +2244,7 @@
       <c r="G17" s="15">
         <v>10</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="36">
         <v>5</v>
       </c>
       <c r="I17" s="15">
@@ -2299,7 +2299,7 @@
       <c r="B18" s="14">
         <v>13</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="15" t="s">
@@ -2314,7 +2314,7 @@
       <c r="G18" s="15">
         <v>10</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="36">
         <v>5</v>
       </c>
       <c r="I18" s="15">
@@ -2369,7 +2369,7 @@
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -2384,7 +2384,7 @@
       <c r="G19" s="15">
         <v>10</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="36">
         <v>15</v>
       </c>
       <c r="I19" s="15">
@@ -2439,7 +2439,7 @@
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2454,7 +2454,7 @@
       <c r="G20" s="15">
         <v>0</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="36">
         <v>2</v>
       </c>
       <c r="I20" s="15">
@@ -2509,7 +2509,7 @@
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -2524,7 +2524,7 @@
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="36">
         <v>2</v>
       </c>
       <c r="I21" s="15">
@@ -2579,7 +2579,7 @@
       <c r="B22" s="14">
         <v>17</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="37" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -2594,7 +2594,7 @@
       <c r="G22" s="15">
         <v>0</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="36">
         <v>15</v>
       </c>
       <c r="I22" s="15">
@@ -2649,7 +2649,7 @@
       <c r="B23" s="14">
         <v>18</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="37" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -2664,7 +2664,7 @@
       <c r="G23" s="15">
         <v>10</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="36">
         <v>3</v>
       </c>
       <c r="I23" s="15">
@@ -2717,7 +2717,7 @@
       <c r="B24" s="14">
         <v>19</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="37" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2732,7 +2732,7 @@
       <c r="G24" s="15">
         <v>10</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="36">
         <v>3</v>
       </c>
       <c r="I24" s="15">
@@ -2782,7 +2782,7 @@
     </row>
     <row r="25" spans="1:28" ht="16.5" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="48">
+      <c r="B25" s="38">
         <v>20</v>
       </c>
       <c r="C25" s="11"/>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9610A37-064D-4892-9EBB-A858C8E92E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18210" yWindow="3450" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18210" yWindow="3450" windowWidth="13650" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -592,7 +591,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +620,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +937,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,14 +1204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1644,8 +1712,8 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" s="17">
-        <v>0</v>
+      <c r="R8" s="65">
+        <v>322003</v>
       </c>
       <c r="S8" s="17">
         <v>970015</v>
@@ -1714,8 +1782,8 @@
       <c r="Q9" s="15">
         <v>0</v>
       </c>
-      <c r="R9" s="17">
-        <v>0</v>
+      <c r="R9" s="65">
+        <v>322002</v>
       </c>
       <c r="S9" s="17">
         <v>970014</v>
@@ -1784,17 +1852,17 @@
       <c r="Q10" s="15">
         <v>0</v>
       </c>
-      <c r="R10" s="17">
-        <v>0</v>
+      <c r="R10" s="65">
+        <v>323001</v>
       </c>
       <c r="S10" s="17">
-        <v>923003</v>
+        <v>923004</v>
       </c>
       <c r="T10" s="17">
         <v>923003</v>
       </c>
       <c r="U10" s="17">
-        <v>923003</v>
+        <v>923004</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="4"/>
@@ -1854,8 +1922,8 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" s="17">
-        <v>0</v>
+      <c r="R11" s="65">
+        <v>323004</v>
       </c>
       <c r="S11" s="17">
         <v>970012</v>
@@ -1879,62 +1947,62 @@
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="50">
         <v>170007</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="50">
         <v>2</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="50">
         <v>10</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="51">
         <v>10</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="50">
         <v>4</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="50">
         <v>1</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="50">
         <v>10</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="52">
         <v>5</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="50">
         <v>1</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="50">
         <v>2</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="50">
         <v>360</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="50">
         <v>10</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="50">
         <v>0</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="53">
         <v>0</v>
       </c>
-      <c r="S12" s="17">
-        <v>0</v>
-      </c>
-      <c r="T12" s="17">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
-        <v>0</v>
+      <c r="S12" s="53">
+        <v>921012</v>
+      </c>
+      <c r="T12" s="53">
+        <v>921014</v>
+      </c>
+      <c r="U12" s="53">
+        <v>921013</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="4"/>
@@ -2159,62 +2227,62 @@
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="50">
         <v>170011</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="50">
         <v>2</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="50">
         <v>10</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="51">
         <v>15</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="50">
         <v>3</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="50">
         <v>1</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="50">
         <v>10</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="52">
         <v>5</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="50">
         <v>1</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="50">
         <v>1</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="50">
         <v>15</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="50">
         <v>15</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="50">
         <v>0</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="53">
         <v>0</v>
       </c>
-      <c r="S16" s="17">
-        <v>0</v>
-      </c>
-      <c r="T16" s="17">
-        <v>0</v>
-      </c>
-      <c r="U16" s="17">
-        <v>0</v>
+      <c r="S16" s="53">
+        <v>921016</v>
+      </c>
+      <c r="T16" s="53">
+        <v>921016</v>
+      </c>
+      <c r="U16" s="53">
+        <v>921015</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="4"/>
@@ -2369,61 +2437,61 @@
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="56">
         <v>170014</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="56">
         <v>2</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="56">
         <v>10</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="57">
         <v>15</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="56">
         <v>3</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="56">
         <v>1</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="56">
         <v>10</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="58">
         <v>5</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="56">
         <v>1</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="56">
         <v>1</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="56">
         <v>15</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="56">
         <v>15</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="56">
         <v>0</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="65">
+        <v>322001</v>
+      </c>
+      <c r="S19" s="59">
         <v>0</v>
       </c>
-      <c r="S19" s="17">
-        <v>0</v>
-      </c>
-      <c r="T19" s="17">
-        <v>0</v>
-      </c>
-      <c r="U19" s="17">
+      <c r="T19" s="59">
+        <v>922005</v>
+      </c>
+      <c r="U19" s="59">
         <v>0</v>
       </c>
       <c r="V19" s="2"/>
@@ -2439,61 +2507,61 @@
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="61">
         <v>170015</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="61">
         <v>1</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="61">
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="62">
         <v>2</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="61">
         <v>5</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="61">
         <v>1</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="61">
         <v>10</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="63">
         <v>5</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="61">
         <v>1</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="61">
         <v>1</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="61">
         <v>2</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="61">
         <v>2</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="61">
         <v>0</v>
       </c>
-      <c r="R20" s="17">
-        <v>0</v>
+      <c r="R20" s="65">
+        <v>323002</v>
       </c>
       <c r="S20" s="17">
-        <v>0</v>
-      </c>
-      <c r="T20" s="17">
-        <v>0</v>
-      </c>
-      <c r="U20" s="17">
+        <v>923004</v>
+      </c>
+      <c r="T20" s="64">
+        <v>923010</v>
+      </c>
+      <c r="U20" s="64">
         <v>0</v>
       </c>
       <c r="V20" s="2"/>
@@ -2509,61 +2577,61 @@
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="61">
         <v>170016</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="61">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="61">
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="62">
         <v>2</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="61">
         <v>5</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="61">
         <v>1</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="61">
         <v>10</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="63">
         <v>5</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="61">
         <v>1</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="61">
         <v>1</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="61">
         <v>2</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="61">
         <v>2</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="61">
         <v>0</v>
       </c>
-      <c r="R21" s="17">
-        <v>0</v>
+      <c r="R21" s="65">
+        <v>323003</v>
       </c>
       <c r="S21" s="17">
         <v>0</v>
       </c>
-      <c r="T21" s="17">
-        <v>0</v>
-      </c>
-      <c r="U21" s="17">
+      <c r="T21" s="64">
+        <v>923011</v>
+      </c>
+      <c r="U21" s="64">
         <v>0</v>
       </c>
       <c r="V21" s="2"/>
@@ -32159,8 +32227,8 @@
       <c r="AB998" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:V103" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:V103">
+  <autoFilter ref="B5:V103">
+    <sortState ref="B6:V103">
       <sortCondition ref="B5:B103"/>
     </sortState>
   </autoFilter>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -591,7 +591,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,16 +963,7 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,7 +984,28 @@
     <xf numFmtId="176" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,10 +1226,10 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1712,7 +1730,7 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="67">
         <v>322003</v>
       </c>
       <c r="S8" s="17">
@@ -1782,7 +1800,7 @@
       <c r="Q9" s="15">
         <v>0</v>
       </c>
-      <c r="R9" s="65">
+      <c r="R9" s="67">
         <v>322002</v>
       </c>
       <c r="S9" s="17">
@@ -1852,7 +1870,7 @@
       <c r="Q10" s="15">
         <v>0</v>
       </c>
-      <c r="R10" s="65">
+      <c r="R10" s="67">
         <v>323001</v>
       </c>
       <c r="S10" s="17">
@@ -1922,7 +1940,7 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" s="65">
+      <c r="R11" s="67">
         <v>323004</v>
       </c>
       <c r="S11" s="17">
@@ -2437,61 +2455,61 @@
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="58">
         <v>170014</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="58">
         <v>2</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="58">
         <v>10</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="59">
         <v>15</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="58">
         <v>3</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="58">
         <v>1</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="58">
         <v>10</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="60">
         <v>5</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="58">
         <v>1</v>
       </c>
-      <c r="N19" s="56">
+      <c r="N19" s="58">
         <v>1</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="58">
         <v>15</v>
       </c>
-      <c r="P19" s="56">
+      <c r="P19" s="55">
         <v>15</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="55">
         <v>0</v>
       </c>
-      <c r="R19" s="65">
+      <c r="R19" s="68">
         <v>322001</v>
       </c>
-      <c r="S19" s="59">
+      <c r="S19" s="56">
         <v>0</v>
       </c>
-      <c r="T19" s="59">
+      <c r="T19" s="61">
         <v>922005</v>
       </c>
-      <c r="U19" s="59">
+      <c r="U19" s="61">
         <v>0</v>
       </c>
       <c r="V19" s="2"/>
@@ -2507,61 +2525,61 @@
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="63">
         <v>170015</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="63">
         <v>1</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="63">
         <v>0</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="64">
         <v>2</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="63">
         <v>5</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="63">
         <v>1</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="63">
         <v>10</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="65">
         <v>5</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="63">
         <v>1</v>
       </c>
-      <c r="N20" s="61">
+      <c r="N20" s="63">
         <v>1</v>
       </c>
-      <c r="O20" s="61">
+      <c r="O20" s="63">
         <v>2</v>
       </c>
-      <c r="P20" s="61">
+      <c r="P20" s="63">
         <v>2</v>
       </c>
-      <c r="Q20" s="61">
+      <c r="Q20" s="63">
         <v>0</v>
       </c>
-      <c r="R20" s="65">
+      <c r="R20" s="69">
         <v>323002</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="66">
         <v>923004</v>
       </c>
-      <c r="T20" s="64">
+      <c r="T20" s="66">
         <v>923010</v>
       </c>
-      <c r="U20" s="64">
+      <c r="U20" s="66">
         <v>0</v>
       </c>
       <c r="V20" s="2"/>
@@ -2577,61 +2595,61 @@
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="63">
         <v>170016</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="63">
         <v>1</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="63">
         <v>0</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="64">
         <v>2</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="63">
         <v>5</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="63">
         <v>1</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="63">
         <v>10</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="65">
         <v>5</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="63">
         <v>1</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="63">
         <v>1</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="63">
         <v>2</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P21" s="63">
         <v>2</v>
       </c>
-      <c r="Q21" s="61">
+      <c r="Q21" s="63">
         <v>0</v>
       </c>
-      <c r="R21" s="65">
+      <c r="R21" s="69">
         <v>323003</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="66">
         <v>0</v>
       </c>
-      <c r="T21" s="64">
+      <c r="T21" s="66">
         <v>923011</v>
       </c>
-      <c r="U21" s="64">
+      <c r="U21" s="66">
         <v>0</v>
       </c>
       <c r="V21" s="2"/>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C42DAF-E8FF-4D2A-B6FD-AC8D8D6AD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18210" yWindow="3450" windowWidth="13650" windowHeight="10800"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -470,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -915,36 +916,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,6 +977,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,14 +1223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1290,16 +1291,16 @@
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="64" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="23"/>
@@ -1315,16 +1316,16 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="39" t="s">
+      <c r="T2" s="68"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="1"/>
@@ -1336,10 +1337,10 @@
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="24" t="s">
         <v>36</v>
       </c>
@@ -1388,7 +1389,7 @@
       <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="40"/>
+      <c r="V3" s="61"/>
       <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1730,7 +1731,7 @@
       <c r="Q8" s="15">
         <v>0</v>
       </c>
-      <c r="R8" s="67">
+      <c r="R8" s="57">
         <v>322003</v>
       </c>
       <c r="S8" s="17">
@@ -1800,7 +1801,7 @@
       <c r="Q9" s="15">
         <v>0</v>
       </c>
-      <c r="R9" s="67">
+      <c r="R9" s="57">
         <v>322002</v>
       </c>
       <c r="S9" s="17">
@@ -1870,7 +1871,7 @@
       <c r="Q10" s="15">
         <v>0</v>
       </c>
-      <c r="R10" s="67">
+      <c r="R10" s="57">
         <v>323001</v>
       </c>
       <c r="S10" s="17">
@@ -1940,7 +1941,7 @@
       <c r="Q11" s="15">
         <v>0</v>
       </c>
-      <c r="R11" s="67">
+      <c r="R11" s="57">
         <v>323004</v>
       </c>
       <c r="S11" s="17">
@@ -1965,61 +1966,61 @@
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="40">
         <v>170007</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="40">
         <v>2</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="40">
         <v>10</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="41">
         <v>10</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="40">
         <v>4</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="40">
         <v>1</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="40">
         <v>10</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="42">
         <v>5</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="40">
         <v>1</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="40">
         <v>2</v>
       </c>
-      <c r="O12" s="50">
+      <c r="O12" s="40">
         <v>360</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="40">
         <v>10</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="40">
         <v>0</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="43">
         <v>0</v>
       </c>
-      <c r="S12" s="53">
+      <c r="S12" s="43">
         <v>921012</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="43">
         <v>921014</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="43">
         <v>921013</v>
       </c>
       <c r="V12" s="2"/>
@@ -2245,61 +2246,61 @@
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="40">
         <v>170011</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="40">
         <v>2</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="40">
         <v>10</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="41">
         <v>15</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="40">
         <v>3</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="40">
         <v>1</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="40">
         <v>10</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="42">
         <v>5</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="40">
         <v>1</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="40">
         <v>1</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="40">
         <v>15</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="40">
         <v>15</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="40">
         <v>0</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="43">
         <v>0</v>
       </c>
-      <c r="S16" s="53">
+      <c r="S16" s="43">
         <v>921016</v>
       </c>
-      <c r="T16" s="53">
+      <c r="T16" s="43">
         <v>921016</v>
       </c>
-      <c r="U16" s="53">
+      <c r="U16" s="43">
         <v>921015</v>
       </c>
       <c r="V16" s="2"/>
@@ -2455,61 +2456,61 @@
       <c r="B19" s="14">
         <v>14</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="48">
         <v>170014</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="48">
         <v>2</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="48">
         <v>10</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="49">
         <v>15</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="48">
         <v>3</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="48">
         <v>1</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="48">
         <v>10</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="50">
         <v>5</v>
       </c>
-      <c r="M19" s="58">
+      <c r="M19" s="48">
         <v>1</v>
       </c>
-      <c r="N19" s="58">
+      <c r="N19" s="48">
         <v>1</v>
       </c>
-      <c r="O19" s="58">
+      <c r="O19" s="48">
         <v>15</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="45">
         <v>15</v>
       </c>
-      <c r="Q19" s="55">
+      <c r="Q19" s="45">
         <v>0</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="58">
         <v>322001</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="46">
         <v>0</v>
       </c>
-      <c r="T19" s="61">
+      <c r="T19" s="51">
         <v>922005</v>
       </c>
-      <c r="U19" s="61">
+      <c r="U19" s="51">
         <v>0</v>
       </c>
       <c r="V19" s="2"/>
@@ -2525,61 +2526,61 @@
       <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="53">
         <v>170015</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="53">
         <v>1</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="53">
         <v>0</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="54">
         <v>2</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="53">
         <v>5</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="53">
         <v>1</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="53">
         <v>10</v>
       </c>
-      <c r="L20" s="65">
+      <c r="L20" s="55">
         <v>5</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="53">
         <v>1</v>
       </c>
-      <c r="N20" s="63">
+      <c r="N20" s="53">
         <v>1</v>
       </c>
-      <c r="O20" s="63">
+      <c r="O20" s="53">
         <v>2</v>
       </c>
-      <c r="P20" s="63">
+      <c r="P20" s="53">
         <v>2</v>
       </c>
-      <c r="Q20" s="63">
+      <c r="Q20" s="53">
         <v>0</v>
       </c>
-      <c r="R20" s="69">
+      <c r="R20" s="59">
         <v>323002</v>
       </c>
-      <c r="S20" s="66">
+      <c r="S20" s="56">
         <v>923004</v>
       </c>
-      <c r="T20" s="66">
+      <c r="T20" s="56">
         <v>923010</v>
       </c>
-      <c r="U20" s="66">
+      <c r="U20" s="56">
         <v>0</v>
       </c>
       <c r="V20" s="2"/>
@@ -2595,61 +2596,61 @@
       <c r="B21" s="14">
         <v>16</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="53">
         <v>170016</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="53">
         <v>1</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="53">
         <v>0</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="54">
         <v>2</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="53">
         <v>5</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="53">
         <v>1</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="53">
         <v>10</v>
       </c>
-      <c r="L21" s="65">
+      <c r="L21" s="55">
         <v>5</v>
       </c>
-      <c r="M21" s="63">
+      <c r="M21" s="53">
         <v>1</v>
       </c>
-      <c r="N21" s="63">
+      <c r="N21" s="53">
         <v>1</v>
       </c>
-      <c r="O21" s="63">
+      <c r="O21" s="53">
         <v>2</v>
       </c>
-      <c r="P21" s="63">
+      <c r="P21" s="53">
         <v>2</v>
       </c>
-      <c r="Q21" s="63">
+      <c r="Q21" s="53">
         <v>0</v>
       </c>
-      <c r="R21" s="69">
+      <c r="R21" s="59">
         <v>323003</v>
       </c>
-      <c r="S21" s="66">
+      <c r="S21" s="56">
         <v>0</v>
       </c>
-      <c r="T21" s="66">
+      <c r="T21" s="56">
         <v>923011</v>
       </c>
-      <c r="U21" s="66">
+      <c r="U21" s="56">
         <v>0</v>
       </c>
       <c r="V21" s="2"/>
@@ -2788,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="17">
-        <v>0</v>
+        <v>972002</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="4"/>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="17">
-        <v>0</v>
+        <v>972002</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="4"/>
@@ -32245,8 +32246,8 @@
       <c r="AB998" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:V103">
-    <sortState ref="B6:V103">
+  <autoFilter ref="B5:V103" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:V103">
       <sortCondition ref="B5:B103"/>
     </sortState>
   </autoFilter>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C42DAF-E8FF-4D2A-B6FD-AC8D8D6AD8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B60973-9EE7-4503-B09C-98551B6AA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="17">
-        <v>912007</v>
+        <v>912008</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="4"/>
@@ -1805,7 +1805,7 @@
         <v>322002</v>
       </c>
       <c r="S9" s="17">
-        <v>970014</v>
+        <v>0</v>
       </c>
       <c r="T9" s="17">
         <v>0</v>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B60973-9EE7-4503-B09C-98551B6AA104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A7D96-6F84-467E-AF0C-23F2E142E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1735,10 +1735,10 @@
         <v>322003</v>
       </c>
       <c r="S8" s="17">
-        <v>970015</v>
+        <v>0</v>
       </c>
       <c r="T8" s="17">
-        <v>0</v>
+        <v>970005</v>
       </c>
       <c r="U8" s="17">
         <v>912008</v>
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="T9" s="17">
-        <v>0</v>
+        <v>922001</v>
       </c>
       <c r="U9" s="17">
-        <v>0</v>
+        <v>922006</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="4"/>
@@ -1945,13 +1945,13 @@
         <v>323004</v>
       </c>
       <c r="S11" s="17">
-        <v>970012</v>
+        <v>0</v>
       </c>
       <c r="T11" s="17">
-        <v>0</v>
+        <v>923005</v>
       </c>
       <c r="U11" s="17">
-        <v>912008</v>
+        <v>923006</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="4"/>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5A7D96-6F84-467E-AF0C-23F2E142E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7279B-4237-4BD3-B109-532A4144D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/Assets/00.Data/Excel/SpiritSkill.xlsx
+++ b/Assets/00.Data/Excel/SpiritSkill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7279B-4237-4BD3-B109-532A4144D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SpiritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1223,14 +1222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1559,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="36">
         <v>1</v>
@@ -1577,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="15">
         <v>2</v>
@@ -1595,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="17">
-        <v>923004</v>
+        <v>0</v>
       </c>
       <c r="T6" s="17">
         <v>921004</v>
@@ -1644,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
@@ -1665,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="17">
-        <v>923004</v>
+        <v>0</v>
       </c>
       <c r="T7" s="17">
         <v>970018</v>
@@ -1701,11 +1700,11 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="36">
-        <v>1</v>
+      <c r="H8" s="15">
+        <v>15</v>
       </c>
       <c r="I8" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
@@ -1714,19 +1713,19 @@
         <v>3</v>
       </c>
       <c r="L8" s="16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M8" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N8" s="15">
         <v>2</v>
       </c>
       <c r="O8" s="15">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="P8" s="15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1775,28 +1774,28 @@
         <v>1</v>
       </c>
       <c r="I9" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="15">
         <v>1</v>
       </c>
       <c r="K9" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L9" s="16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M9" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="15">
         <v>2</v>
       </c>
       <c r="O9" s="15">
-        <v>1</v>
+        <v>360</v>
       </c>
       <c r="P9" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -1808,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="17">
-        <v>922001</v>
+        <v>970017</v>
       </c>
       <c r="U9" s="17">
         <v>922006</v>
@@ -1854,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="L10" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10" s="15">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="N10" s="15">
         <v>2</v>
@@ -32246,8 +32245,8 @@
       <c r="AB998" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:V103" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:V103">
+  <autoFilter ref="B5:V103">
+    <sortState ref="B6:V103">
       <sortCondition ref="B5:B103"/>
     </sortState>
   </autoFilter>
